--- a/Ricardini/[BurndownSprint3]groep5.xlsx
+++ b/Ricardini/[BurndownSprint3]groep5.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -176,6 +176,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,34 +256,22 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>42753</c:v>
+                  <c:v>42762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42754</c:v>
+                  <c:v>42763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42755</c:v>
+                  <c:v>42764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42756</c:v>
+                  <c:v>42765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42757</c:v>
+                  <c:v>42766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -293,33 +283,21 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -345,34 +323,22 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>42753</c:v>
+                  <c:v>42762</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42754</c:v>
+                  <c:v>42763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42755</c:v>
+                  <c:v>42764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42756</c:v>
+                  <c:v>42765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42757</c:v>
+                  <c:v>42766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42758</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42759</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42760</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42762</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,34 +350,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,119 +1076,119 @@
       <c r="B7" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1250,11 +1201,11 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>42753</v>
+        <v>42762</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -1263,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E18" s="3">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1274,19 +1225,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>42754</v>
+        <v>42763</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F19" s="3">
         <v>3</v>
@@ -1294,20 +1245,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>42755</v>
+        <v>42764</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <f>D19-B20</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1315,20 +1265,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>42756</v>
+        <v>42765</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:D24" si="0">D20-B21</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1336,20 +1285,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>42757</v>
+        <v>42766</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1357,113 +1305,59 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>42758</v>
+        <v>42767</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
         <v>2</v>
       </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E23" s="3">
-        <v>20</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="F23" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>42759</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
-      </c>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>42760</v>
-      </c>
-      <c r="B25" s="3">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3">
-        <v>8</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>42761</v>
-      </c>
-      <c r="B26" s="3">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>42762</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1494,26 +1388,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1526,8 +1420,8 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
